--- a/output/Planilha-Pagamento.xlsx
+++ b/output/Planilha-Pagamento.xlsx
@@ -12,96 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
-  <si>
-    <t>GERAL SITUAÇÃO MENS.xls</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column8</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column14</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column9</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column12</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column4</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column6</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column0</t>
-  </si>
-  <si>
-    <t>Linha 160 - Column2</t>
-  </si>
-  <si>
-    <t>% =&gt;</t>
-  </si>
-  <si>
-    <t>% Rendimento</t>
-  </si>
-  <si>
-    <t>Devolvido</t>
-  </si>
-  <si>
-    <t>Saldo do dia</t>
-  </si>
-  <si>
-    <t>Entradas período</t>
-  </si>
-  <si>
-    <t>Recebido</t>
-  </si>
-  <si>
-    <t>Cobrador</t>
-  </si>
-  <si>
-    <t>Saldo anterior</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>GERAL.XLS</t>
   </si>
   <si>
-    <t>Linha 19 - Column1</t>
-  </si>
-  <si>
-    <t>Linha 19 - Column7</t>
-  </si>
-  <si>
-    <t>Linha 19 - Column9</t>
-  </si>
-  <si>
-    <t>Total  (Recebido-Cheque pré+Cheque Custódia+Boletos ) :</t>
+    <t>QTD</t>
+  </si>
+  <si>
+    <t>VALOR</t>
   </si>
   <si>
     <t>28962</t>
   </si>
   <si>
-    <t>R$ 1023082,63</t>
+    <t>1023082.63</t>
   </si>
   <si>
     <t>SETOR 2 SERRA.XLS</t>
   </si>
   <si>
-    <t>Linha 20 - Column1</t>
-  </si>
-  <si>
-    <t>Linha 20 - Column7</t>
-  </si>
-  <si>
-    <t>Linha 20 - Column9</t>
-  </si>
-  <si>
     <t>4815</t>
   </si>
   <si>
-    <t>R$ 150052,00</t>
+    <t>150052.0</t>
   </si>
   <si>
     <t>SETOR 3 PETROLINA.XLS</t>
@@ -110,7 +44,7 @@
     <t>2251</t>
   </si>
   <si>
-    <t>R$ 70659,00</t>
+    <t>70659.0</t>
   </si>
   <si>
     <t>SETOR 4 MATRIZ.XLS</t>
@@ -119,7 +53,7 @@
     <t>6005</t>
   </si>
   <si>
-    <t>R$ 207163,50</t>
+    <t>207163.5</t>
   </si>
   <si>
     <t>SETOR 5 CARUARU.XLS</t>
@@ -128,7 +62,7 @@
     <t>5756</t>
   </si>
   <si>
-    <t>R$ 183573,00</t>
+    <t>183573.0</t>
   </si>
   <si>
     <t>SETOR 6 GARANHUNS.XLS</t>
@@ -137,14 +71,16 @@
     <t>5538</t>
   </si>
   <si>
-    <t>R$ 166544,63</t>
+    <t>166544.63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11.0"/>
@@ -226,29 +162,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
     </row>
@@ -259,211 +207,118 @@
       <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="B3" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="0">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="5">
         <v>5</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>23</v>
+      <c r="A6" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3">
-        <v>24</v>
+      <c r="A7" t="s" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>29</v>
+      <c r="A9" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>30</v>
+      <c r="A10" t="s" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
+      <c r="A12" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>33</v>
+      <c r="A13" t="s" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>35</v>
+      <c r="A15" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="16">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="6">
-        <v>36</v>
+      <c r="A16" t="s" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>41</v>
+      <c r="A18" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
